--- a/f_factor/CFD_Cs8_0.1mfr/mfr_0.1.xlsx
+++ b/f_factor/CFD_Cs8_0.1mfr/mfr_0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\f_factor\Cs8_0.1mfr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\CFD_Cs8_0.1mfr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E0BE4D-9107-40F6-8A04-468787197FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463FAEC3-23DE-4B82-852A-19C9FC9607F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFD_Results" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
   <si>
     <t>Diferencial_cold(bar)</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>V1</t>
-  </si>
-  <si>
-    <t>0.6</t>
   </si>
   <si>
     <t>0.4</t>
@@ -75,13 +72,19 @@
     <t>ExpPressure</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>V2</t>
   </si>
   <si>
     <t>V4</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -412,259 +415,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFEE2B2-17DA-4AD3-88B9-B708B9A84CA6}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="3" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>30913</v>
+      </c>
+      <c r="D3">
+        <v>2823608</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3">
+        <v>30313.146666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>30112</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1518820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6915063</v>
+      </c>
+      <c r="F5" t="e">
+        <f>B3/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>26543</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.4598199999999999</v>
-      </c>
-      <c r="D3">
-        <v>30313.146666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>30936</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.76521600000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>31894</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.50983</v>
-      </c>
-      <c r="D5">
-        <f>B3/B5</f>
-        <v>0.83222549695867565</v>
-      </c>
-      <c r="E5">
-        <f>B4/B5</f>
-        <v>0.96996300244560107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>12557.673333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" t="e">
+        <f>B10/B9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>13245.8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0567500000000001</v>
-      </c>
-      <c r="D9">
-        <v>12557.673333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>13206.6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0736399999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>13196.7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.55830999999999997</v>
-      </c>
-      <c r="D11">
-        <f>B10/B9</f>
-        <v>0.99704057135091884</v>
-      </c>
-      <c r="E11">
-        <f>B11/B10</f>
-        <v>0.99925037481259371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>21829</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2940988</v>
+      </c>
+      <c r="F15">
+        <v>22211.760000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>21025.9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.37775</v>
-      </c>
-      <c r="D15">
-        <v>22211.760000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B16">
-        <v>21334.5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.1124000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>21573.7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.72281600000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>17636</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.2873300000000001</v>
-      </c>
-      <c r="D21">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21">
         <v>18830.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>17974</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.3112699999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>17800.5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.67134400000000005</v>
       </c>
     </row>
   </sheetData>
@@ -686,9 +622,9 @@
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-0.25900000000000001</v>
       </c>
@@ -746,7 +682,7 @@
         <v>-3.0244200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.30274000000000001</v>
       </c>
@@ -775,7 +711,7 @@
         <v>0.10068000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.30235000000000001</v>
       </c>
@@ -804,7 +740,7 @@
         <v>0.10079</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.30187000000000003</v>
       </c>
@@ -833,7 +769,7 @@
         <v>0.10161000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.30284</v>
       </c>
@@ -862,7 +798,7 @@
         <v>0.10133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.30265999999999998</v>
       </c>
@@ -891,7 +827,7 @@
         <v>0.1012</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.30199999999999999</v>
       </c>
@@ -920,7 +856,7 @@
         <v>0.1017</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.30345</v>
       </c>
@@ -949,7 +885,7 @@
         <v>0.10145</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.30247000000000002</v>
       </c>
@@ -978,7 +914,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.30215999999999998</v>
       </c>
@@ -1007,7 +943,7 @@
         <v>0.10048</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.30212</v>
       </c>
@@ -1036,7 +972,7 @@
         <v>0.10091</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.30246000000000001</v>
       </c>
@@ -1065,7 +1001,7 @@
         <v>0.10086000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.30349999999999999</v>
       </c>
@@ -1094,7 +1030,7 @@
         <v>0.10052999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.30265999999999998</v>
       </c>
@@ -1123,7 +1059,7 @@
         <v>0.10062</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.30237999999999998</v>
       </c>
@@ -1152,7 +1088,7 @@
         <v>0.10102999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.30280000000000001</v>
       </c>
@@ -1181,7 +1117,7 @@
         <v>0.10056</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.30203000000000002</v>
       </c>
@@ -1210,7 +1146,7 @@
         <v>0.10099</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.30231999999999998</v>
       </c>
@@ -1239,7 +1175,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.30296000000000001</v>
       </c>
@@ -1268,7 +1204,7 @@
         <v>0.10111000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.30227999999999999</v>
       </c>
@@ -1297,7 +1233,7 @@
         <v>0.10117</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.30182999999999999</v>
       </c>
@@ -1326,7 +1262,7 @@
         <v>0.10063</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.30310999999999999</v>
       </c>
@@ -1355,7 +1291,7 @@
         <v>0.10034999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.30186000000000002</v>
       </c>
@@ -1384,7 +1320,7 @@
         <v>0.10142</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.30218</v>
       </c>
@@ -1413,7 +1349,7 @@
         <v>0.10092</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.30214000000000002</v>
       </c>
@@ -1442,7 +1378,7 @@
         <v>0.10088</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.30229</v>
       </c>
@@ -1471,7 +1407,7 @@
         <v>0.10136000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.30286000000000002</v>
       </c>
@@ -1500,7 +1436,7 @@
         <v>0.10142</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.30254999999999999</v>
       </c>
@@ -1529,7 +1465,7 @@
         <v>0.10163</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.30209000000000003</v>
       </c>
@@ -1558,7 +1494,7 @@
         <v>0.10112</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30275999999999997</v>
       </c>
@@ -1587,7 +1523,7 @@
         <v>0.1023</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.30309000000000003</v>
       </c>
@@ -1616,7 +1552,7 @@
         <v>0.10163999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.30209000000000003</v>
       </c>
@@ -1645,7 +1581,7 @@
         <v>0.10125000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.30277999999999999</v>
       </c>
@@ -1674,7 +1610,7 @@
         <v>0.10065</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.30259999999999998</v>
       </c>
@@ -1703,7 +1639,7 @@
         <v>0.10115</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.30252000000000001</v>
       </c>
@@ -1732,7 +1668,7 @@
         <v>0.10113999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.30286000000000002</v>
       </c>
@@ -1761,7 +1697,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.30262</v>
       </c>
@@ -1790,7 +1726,7 @@
         <v>0.10148</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.30315999999999999</v>
       </c>
@@ -1819,7 +1755,7 @@
         <v>0.10147</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.30346000000000001</v>
       </c>
@@ -1848,7 +1784,7 @@
         <v>0.10099</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.30292000000000002</v>
       </c>
@@ -1877,7 +1813,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.30277999999999999</v>
       </c>
@@ -1906,7 +1842,7 @@
         <v>0.10126</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.30201</v>
       </c>
@@ -1935,7 +1871,7 @@
         <v>0.1012</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.30225999999999997</v>
       </c>
@@ -1964,7 +1900,7 @@
         <v>0.10106</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.30271999999999999</v>
       </c>
@@ -1993,7 +1929,7 @@
         <v>0.10145999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.30292000000000002</v>
       </c>
@@ -2022,7 +1958,7 @@
         <v>0.10088999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.30314999999999998</v>
       </c>
@@ -2051,7 +1987,7 @@
         <v>0.10142</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.30325999999999997</v>
       </c>
@@ -2080,7 +2016,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.30232999999999999</v>
       </c>
@@ -2109,7 +2045,7 @@
         <v>0.10127</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.30212</v>
       </c>
@@ -2138,7 +2074,7 @@
         <v>0.10037</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.30227999999999999</v>
       </c>
@@ -2167,7 +2103,7 @@
         <v>0.10084</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.30242999999999998</v>
       </c>
@@ -2196,7 +2132,7 @@
         <v>0.10093000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.30224000000000001</v>
       </c>
@@ -2225,7 +2161,7 @@
         <v>0.10120999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.30238999999999999</v>
       </c>
@@ -2254,7 +2190,7 @@
         <v>0.10168000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.30265999999999998</v>
       </c>
@@ -2283,7 +2219,7 @@
         <v>0.10123</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.30296000000000001</v>
       </c>
@@ -2312,7 +2248,7 @@
         <v>0.10075000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.30275000000000002</v>
       </c>
@@ -2341,7 +2277,7 @@
         <v>0.10077999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.30318000000000001</v>
       </c>
@@ -2370,7 +2306,7 @@
         <v>0.10106</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.30285000000000001</v>
       </c>
@@ -2399,7 +2335,7 @@
         <v>0.10079</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.30268</v>
       </c>
@@ -2428,7 +2364,7 @@
         <v>0.10059999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.30229</v>
       </c>
@@ -2457,7 +2393,7 @@
         <v>0.10066</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.30303999999999998</v>
       </c>
@@ -2486,7 +2422,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.30223</v>
       </c>
@@ -2515,7 +2451,7 @@
         <v>0.10098</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.30292000000000002</v>
       </c>
@@ -2544,7 +2480,7 @@
         <v>0.10144</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.3029</v>
       </c>
@@ -2573,7 +2509,7 @@
         <v>0.10106</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.30337999999999998</v>
       </c>
@@ -2602,7 +2538,7 @@
         <v>0.10126</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.30262</v>
       </c>
@@ -2631,7 +2567,7 @@
         <v>0.10094</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.30216999999999999</v>
       </c>
@@ -2660,7 +2596,7 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.30298999999999998</v>
       </c>
@@ -2689,7 +2625,7 @@
         <v>0.10135</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.30209999999999998</v>
       </c>
@@ -2718,7 +2654,7 @@
         <v>0.10117</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.30236000000000002</v>
       </c>
@@ -2747,7 +2683,7 @@
         <v>0.10131</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.30259000000000003</v>
       </c>
@@ -2776,7 +2712,7 @@
         <v>0.10133</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.30174000000000001</v>
       </c>
@@ -2805,7 +2741,7 @@
         <v>0.10126</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.30292000000000002</v>
       </c>
@@ -2834,7 +2770,7 @@
         <v>0.10088</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.30275000000000002</v>
       </c>
@@ -2863,7 +2799,7 @@
         <v>0.10052999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.30324000000000001</v>
       </c>
@@ -2892,7 +2828,7 @@
         <v>0.10069</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.30223</v>
       </c>
@@ -2921,7 +2857,7 @@
         <v>0.10106999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.30362</v>
       </c>
@@ -2950,7 +2886,7 @@
         <v>0.10088999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.30225000000000002</v>
       </c>
@@ -2979,7 +2915,7 @@
         <v>0.10155</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.30237999999999998</v>
       </c>
@@ -3008,7 +2944,7 @@
         <v>0.10167</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.30281000000000002</v>
       </c>
@@ -3037,7 +2973,7 @@
         <v>0.10088999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.30297000000000002</v>
       </c>
@@ -3066,7 +3002,7 @@
         <v>0.10122</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.30277999999999999</v>
       </c>
@@ -3095,7 +3031,7 @@
         <v>0.10152</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.30238999999999999</v>
       </c>
@@ -3124,7 +3060,7 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.30263000000000001</v>
       </c>
@@ -3153,7 +3089,7 @@
         <v>0.10033</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.30307000000000001</v>
       </c>
@@ -3182,7 +3118,7 @@
         <v>0.10097</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.30364999999999998</v>
       </c>
@@ -3211,7 +3147,7 @@
         <v>0.10034</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.30284</v>
       </c>
@@ -3240,7 +3176,7 @@
         <v>0.10027999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.30220000000000002</v>
       </c>
@@ -3269,7 +3205,7 @@
         <v>0.10001</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.30296000000000001</v>
       </c>
@@ -3298,7 +3234,7 @@
         <v>9.9959999999999993E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.30286000000000002</v>
       </c>
@@ -3327,7 +3263,7 @@
         <v>0.10063</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.30286000000000002</v>
       </c>
@@ -3356,7 +3292,7 @@
         <v>0.10137</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.30308000000000002</v>
       </c>
@@ -3385,7 +3321,7 @@
         <v>0.10108</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.30256</v>
       </c>
@@ -3414,7 +3350,7 @@
         <v>0.10052</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.30143999999999999</v>
       </c>
@@ -3443,7 +3379,7 @@
         <v>9.9650000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>AVERAGE(A46:A95)*100000</f>
         <v>30268.040000000012</v>
@@ -3481,7 +3417,7 @@
         <v>0.10093099999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>AVERAGE(A97,E97,I97)</f>
         <v>30313.146666666667</v>
@@ -3500,9 +3436,9 @@
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-0.25900000000000001</v>
       </c>
@@ -3560,7 +3496,7 @@
         <v>-3.0244200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.22311</v>
       </c>
@@ -3589,7 +3525,7 @@
         <v>0.10149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.22319</v>
       </c>
@@ -3618,7 +3554,7 @@
         <v>0.10141</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.22339000000000001</v>
       </c>
@@ -3647,7 +3583,7 @@
         <v>0.10111000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.22311</v>
       </c>
@@ -3676,7 +3612,7 @@
         <v>0.10086000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.22303999999999999</v>
       </c>
@@ -3705,7 +3641,7 @@
         <v>0.10075000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.22323999999999999</v>
       </c>
@@ -3734,7 +3670,7 @@
         <v>0.1003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.22291</v>
       </c>
@@ -3763,7 +3699,7 @@
         <v>0.10036</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.22389000000000001</v>
       </c>
@@ -3792,7 +3728,7 @@
         <v>9.9860000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.22311</v>
       </c>
@@ -3821,7 +3757,7 @@
         <v>0.10049</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.22334000000000001</v>
       </c>
@@ -3850,7 +3786,7 @@
         <v>0.10106999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.22289999999999999</v>
       </c>
@@ -3879,7 +3815,7 @@
         <v>0.10059</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.22305</v>
       </c>
@@ -3908,7 +3844,7 @@
         <v>0.10068000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.22283</v>
       </c>
@@ -3937,7 +3873,7 @@
         <v>0.10041</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.22334999999999999</v>
       </c>
@@ -3966,7 +3902,7 @@
         <v>0.10077999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.22322</v>
       </c>
@@ -3995,7 +3931,7 @@
         <v>0.10098</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.22272</v>
       </c>
@@ -4024,7 +3960,7 @@
         <v>0.10149</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.22375999999999999</v>
       </c>
@@ -4053,7 +3989,7 @@
         <v>0.10054</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.22302</v>
       </c>
@@ -4082,7 +4018,7 @@
         <v>0.10083</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.22334999999999999</v>
       </c>
@@ -4111,7 +4047,7 @@
         <v>0.10011</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.22309000000000001</v>
       </c>
@@ -4140,7 +4076,7 @@
         <v>0.10049</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22334999999999999</v>
       </c>
@@ -4169,7 +4105,7 @@
         <v>0.10038</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.22322</v>
       </c>
@@ -4198,7 +4134,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.22370999999999999</v>
       </c>
@@ -4227,7 +4163,7 @@
         <v>0.10120999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.22358</v>
       </c>
@@ -4256,7 +4192,7 @@
         <v>0.10131</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.22372</v>
       </c>
@@ -4285,7 +4221,7 @@
         <v>0.10055</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.22352</v>
       </c>
@@ -4314,7 +4250,7 @@
         <v>0.10017</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.22364000000000001</v>
       </c>
@@ -4343,7 +4279,7 @@
         <v>0.10068000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.22377</v>
       </c>
@@ -4372,7 +4308,7 @@
         <v>0.10059999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.22339000000000001</v>
       </c>
@@ -4401,7 +4337,7 @@
         <v>0.10034</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.22314999999999999</v>
       </c>
@@ -4430,7 +4366,7 @@
         <v>0.10131999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.22313</v>
       </c>
@@ -4459,7 +4395,7 @@
         <v>0.10138</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.22370999999999999</v>
       </c>
@@ -4488,7 +4424,7 @@
         <v>0.10112</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.22323999999999999</v>
       </c>
@@ -4517,7 +4453,7 @@
         <v>0.10092</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.22306000000000001</v>
       </c>
@@ -4546,7 +4482,7 @@
         <v>0.10162</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.22348000000000001</v>
       </c>
@@ -4575,7 +4511,7 @@
         <v>0.10102999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.22372</v>
       </c>
@@ -4604,7 +4540,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.22362000000000001</v>
       </c>
@@ -4633,7 +4569,7 @@
         <v>0.10041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.22367000000000001</v>
       </c>
@@ -4662,7 +4598,7 @@
         <v>0.10070999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.22322</v>
       </c>
@@ -4691,7 +4627,7 @@
         <v>0.10131</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.22305</v>
       </c>
@@ -4720,7 +4656,7 @@
         <v>0.10134</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.22314999999999999</v>
       </c>
@@ -4749,7 +4685,7 @@
         <v>0.10186000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.22416</v>
       </c>
@@ -4778,7 +4714,7 @@
         <v>0.10165</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.22362000000000001</v>
       </c>
@@ -4807,7 +4743,7 @@
         <v>0.10050000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.22392999999999999</v>
       </c>
@@ -4836,7 +4772,7 @@
         <v>0.10016</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.22297</v>
       </c>
@@ -4865,7 +4801,7 @@
         <v>0.10034999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.22391</v>
       </c>
@@ -4894,7 +4830,7 @@
         <v>0.10086000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.22359000000000001</v>
       </c>
@@ -4923,7 +4859,7 @@
         <v>0.10124</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.22338</v>
       </c>
@@ -4952,7 +4888,7 @@
         <v>0.10063999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.22259999999999999</v>
       </c>
@@ -4981,7 +4917,7 @@
         <v>0.10062</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.22262999999999999</v>
       </c>
@@ -5010,7 +4946,7 @@
         <v>0.10152</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.2223</v>
       </c>
@@ -5039,7 +4975,7 @@
         <v>0.10094</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.2225</v>
       </c>
@@ -5068,7 +5004,7 @@
         <v>0.10097</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.22281999999999999</v>
       </c>
@@ -5097,7 +5033,7 @@
         <v>0.10124</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.22206000000000001</v>
       </c>
@@ -5126,7 +5062,7 @@
         <v>0.10082000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.22295000000000001</v>
       </c>
@@ -5155,7 +5091,7 @@
         <v>0.10131999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.22245999999999999</v>
       </c>
@@ -5184,7 +5120,7 @@
         <v>0.10122</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.22292000000000001</v>
       </c>
@@ -5213,7 +5149,7 @@
         <v>0.10128</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.22317000000000001</v>
       </c>
@@ -5242,7 +5178,7 @@
         <v>0.10134</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.22245000000000001</v>
       </c>
@@ -5271,7 +5207,7 @@
         <v>0.10106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.22284999999999999</v>
       </c>
@@ -5300,7 +5236,7 @@
         <v>0.10087</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.2223</v>
       </c>
@@ -5329,7 +5265,7 @@
         <v>0.10122</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.22212000000000001</v>
       </c>
@@ -5358,7 +5294,7 @@
         <v>0.10068000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.22244</v>
       </c>
@@ -5387,7 +5323,7 @@
         <v>0.10082000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.22273999999999999</v>
       </c>
@@ -5416,7 +5352,7 @@
         <v>0.10076</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.22234000000000001</v>
       </c>
@@ -5445,7 +5381,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.22212000000000001</v>
       </c>
@@ -5474,7 +5410,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.22289999999999999</v>
       </c>
@@ -5503,7 +5439,7 @@
         <v>0.1019</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.22255</v>
       </c>
@@ -5532,7 +5468,7 @@
         <v>0.10049</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.22301000000000001</v>
       </c>
@@ -5561,7 +5497,7 @@
         <v>0.1007</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.22294</v>
       </c>
@@ -5590,7 +5526,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.22303999999999999</v>
       </c>
@@ -5619,7 +5555,7 @@
         <v>0.10072</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.2225</v>
       </c>
@@ -5648,7 +5584,7 @@
         <v>0.10138999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.22258</v>
       </c>
@@ -5677,7 +5613,7 @@
         <v>0.10168000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.22269</v>
       </c>
@@ -5706,7 +5642,7 @@
         <v>0.10131</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.22273000000000001</v>
       </c>
@@ -5735,7 +5671,7 @@
         <v>0.10104</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.22259000000000001</v>
       </c>
@@ -5764,7 +5700,7 @@
         <v>0.10128</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.22291</v>
       </c>
@@ -5793,7 +5729,7 @@
         <v>0.10041</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.22352</v>
       </c>
@@ -5822,7 +5758,7 @@
         <v>0.10047</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.22352</v>
       </c>
@@ -5851,7 +5787,7 @@
         <v>0.10108</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.22306000000000001</v>
       </c>
@@ -5880,7 +5816,7 @@
         <v>0.10156</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.22298000000000001</v>
       </c>
@@ -5909,7 +5845,7 @@
         <v>0.10156999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.22298999999999999</v>
       </c>
@@ -5938,7 +5874,7 @@
         <v>0.10138999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.22298000000000001</v>
       </c>
@@ -5967,7 +5903,7 @@
         <v>0.10156999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.22305</v>
       </c>
@@ -5996,7 +5932,7 @@
         <v>0.10126</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.22319</v>
       </c>
@@ -6025,7 +5961,7 @@
         <v>0.10101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.22292000000000001</v>
       </c>
@@ -6054,7 +5990,7 @@
         <v>0.10112</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.22262999999999999</v>
       </c>
@@ -6083,7 +6019,7 @@
         <v>0.10137</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.22317000000000001</v>
       </c>
@@ -6112,7 +6048,7 @@
         <v>0.10174999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.22262999999999999</v>
       </c>
@@ -6141,7 +6077,7 @@
         <v>0.10095999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.22272</v>
       </c>
@@ -6170,7 +6106,7 @@
         <v>0.10091</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.22289</v>
       </c>
@@ -6199,7 +6135,7 @@
         <v>0.10124</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.22301000000000001</v>
       </c>
@@ -6228,7 +6164,7 @@
         <v>0.10143000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.22384999999999999</v>
       </c>
@@ -6257,7 +6193,7 @@
         <v>0.10122</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>AVERAGE(A46:A95)*100000</f>
         <v>22286.200000000008</v>
@@ -6295,7 +6231,7 @@
         <v>0.10107559999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>AVERAGE(A97,E97,I97)</f>
         <v>22211.760000000006</v>
@@ -6314,9 +6250,9 @@
       <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6345,7 +6281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-0.25900000000000001</v>
       </c>
@@ -6374,7 +6310,7 @@
         <v>-3.0244200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.12711</v>
       </c>
@@ -6403,7 +6339,7 @@
         <v>0.1027</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.12769</v>
       </c>
@@ -6432,7 +6368,7 @@
         <v>0.10255</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.12709999999999999</v>
       </c>
@@ -6461,7 +6397,7 @@
         <v>0.10206</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.12687000000000001</v>
       </c>
@@ -6490,7 +6426,7 @@
         <v>0.10276</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.12736</v>
       </c>
@@ -6519,7 +6455,7 @@
         <v>0.10221</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.12728</v>
       </c>
@@ -6548,7 +6484,7 @@
         <v>0.10291</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.12726999999999999</v>
       </c>
@@ -6577,7 +6513,7 @@
         <v>0.10255</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.12683</v>
       </c>
@@ -6606,7 +6542,7 @@
         <v>0.10226</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.12745999999999999</v>
       </c>
@@ -6635,7 +6571,7 @@
         <v>0.10304000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.12711</v>
       </c>
@@ -6664,7 +6600,7 @@
         <v>0.10276</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.12753</v>
       </c>
@@ -6693,7 +6629,7 @@
         <v>0.10249999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.1275</v>
       </c>
@@ -6722,7 +6658,7 @@
         <v>0.10234</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.12745000000000001</v>
       </c>
@@ -6751,7 +6687,7 @@
         <v>0.10172</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.12723000000000001</v>
       </c>
@@ -6780,7 +6716,7 @@
         <v>0.10147</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.12737999999999999</v>
       </c>
@@ -6809,7 +6745,7 @@
         <v>0.10117</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.12703999999999999</v>
       </c>
@@ -6838,7 +6774,7 @@
         <v>0.10077</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.12712999999999999</v>
       </c>
@@ -6867,7 +6803,7 @@
         <v>0.10118000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.12715000000000001</v>
       </c>
@@ -6896,7 +6832,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.12744</v>
       </c>
@@ -6925,7 +6861,7 @@
         <v>0.10118000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.12731000000000001</v>
       </c>
@@ -6954,7 +6890,7 @@
         <v>0.10094</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.12708</v>
       </c>
@@ -6983,7 +6919,7 @@
         <v>0.10102</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.12756000000000001</v>
       </c>
@@ -7012,7 +6948,7 @@
         <v>0.10084</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.12825</v>
       </c>
@@ -7041,7 +6977,7 @@
         <v>0.10108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.12814</v>
       </c>
@@ -7070,7 +7006,7 @@
         <v>0.1004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.12708</v>
       </c>
@@ -7099,7 +7035,7 @@
         <v>0.10056</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.12798999999999999</v>
       </c>
@@ -7128,7 +7064,7 @@
         <v>0.10034</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.12737000000000001</v>
       </c>
@@ -7157,7 +7093,7 @@
         <v>9.9570000000000006E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.12712000000000001</v>
       </c>
@@ -7186,7 +7122,7 @@
         <v>0.10085</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.12728</v>
       </c>
@@ -7215,7 +7151,7 @@
         <v>0.10041</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.12691</v>
       </c>
@@ -7244,7 +7180,7 @@
         <v>9.9860000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.12767999999999999</v>
       </c>
@@ -7273,7 +7209,7 @@
         <v>0.10034</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.12744</v>
       </c>
@@ -7302,7 +7238,7 @@
         <v>0.10043000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.12691</v>
       </c>
@@ -7331,7 +7267,7 @@
         <v>9.9769999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.12694</v>
       </c>
@@ -7360,7 +7296,7 @@
         <v>9.9919999999999995E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.12748999999999999</v>
       </c>
@@ -7389,7 +7325,7 @@
         <v>9.9680000000000005E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.12697</v>
       </c>
@@ -7418,7 +7354,7 @@
         <v>0.10007000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.12756999999999999</v>
       </c>
@@ -7447,7 +7383,7 @@
         <v>0.10017</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.12742999999999999</v>
       </c>
@@ -7476,7 +7412,7 @@
         <v>0.10022</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.12645000000000001</v>
       </c>
@@ -7505,7 +7441,7 @@
         <v>0.10007000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.12753</v>
       </c>
@@ -7534,7 +7470,7 @@
         <v>9.9849999999999994E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.12722</v>
       </c>
@@ -7563,7 +7499,7 @@
         <v>9.9970000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.1275</v>
       </c>
@@ -7592,7 +7528,7 @@
         <v>0.10074</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.12695000000000001</v>
       </c>
@@ -7621,7 +7557,7 @@
         <v>0.10057000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.12745000000000001</v>
       </c>
@@ -7650,7 +7586,7 @@
         <v>0.10018000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.12765000000000001</v>
       </c>
@@ -7679,7 +7615,7 @@
         <v>0.10019</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.12695000000000001</v>
       </c>
@@ -7708,7 +7644,7 @@
         <v>9.9690000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.12856999999999999</v>
       </c>
@@ -7737,7 +7673,7 @@
         <v>9.9489999999999995E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.12805</v>
       </c>
@@ -7766,7 +7702,7 @@
         <v>9.9839999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.12733</v>
       </c>
@@ -7795,7 +7731,7 @@
         <v>0.10011</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.12767999999999999</v>
       </c>
@@ -7824,7 +7760,7 @@
         <v>0.10009</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.12737000000000001</v>
       </c>
@@ -7853,7 +7789,7 @@
         <v>0.10091</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.12726999999999999</v>
       </c>
@@ -7882,7 +7818,7 @@
         <v>0.10085</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.12728999999999999</v>
       </c>
@@ -7911,7 +7847,7 @@
         <v>0.10014000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.12739</v>
       </c>
@@ -7940,7 +7876,7 @@
         <v>9.9260000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.12731000000000001</v>
       </c>
@@ -7969,7 +7905,7 @@
         <v>0.1002</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.12764</v>
       </c>
@@ -7998,7 +7934,7 @@
         <v>0.10085</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.12716</v>
       </c>
@@ -8027,7 +7963,7 @@
         <v>0.10077</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.12726000000000001</v>
       </c>
@@ -8056,7 +7992,7 @@
         <v>9.9809999999999996E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.12753</v>
       </c>
@@ -8085,7 +8021,7 @@
         <v>9.9729999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.12731999999999999</v>
       </c>
@@ -8114,7 +8050,7 @@
         <v>9.9720000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.12814999999999999</v>
       </c>
@@ -8143,7 +8079,7 @@
         <v>9.9510000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.12748999999999999</v>
       </c>
@@ -8172,7 +8108,7 @@
         <v>0.10025000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.12706999999999999</v>
       </c>
@@ -8201,7 +8137,7 @@
         <v>0.10032000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.12767000000000001</v>
       </c>
@@ -8230,7 +8166,7 @@
         <v>9.9650000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.12778</v>
       </c>
@@ -8259,7 +8195,7 @@
         <v>9.9739999999999995E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.12770999999999999</v>
       </c>
@@ -8288,7 +8224,7 @@
         <v>9.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.12723999999999999</v>
       </c>
@@ -8317,7 +8253,7 @@
         <v>9.9659999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.12756000000000001</v>
       </c>
@@ -8346,7 +8282,7 @@
         <v>9.9140000000000006E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.12870000000000001</v>
       </c>
@@ -8375,7 +8311,7 @@
         <v>9.9739999999999995E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.12786</v>
       </c>
@@ -8404,7 +8340,7 @@
         <v>9.9839999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.12778</v>
       </c>
@@ -8433,7 +8369,7 @@
         <v>9.9440000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.12776000000000001</v>
       </c>
@@ -8462,7 +8398,7 @@
         <v>0.10009999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.12748999999999999</v>
       </c>
@@ -8491,7 +8427,7 @@
         <v>9.9449999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.12786</v>
       </c>
@@ -8520,7 +8456,7 @@
         <v>9.962E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.12845000000000001</v>
       </c>
@@ -8549,7 +8485,7 @@
         <v>9.9879999999999997E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.12798999999999999</v>
       </c>
@@ -8578,7 +8514,7 @@
         <v>0.10017</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.12762000000000001</v>
       </c>
@@ -8607,7 +8543,7 @@
         <v>0.10038</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.12823999999999999</v>
       </c>
@@ -8636,7 +8572,7 @@
         <v>0.10048</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.12775</v>
       </c>
@@ -8665,7 +8601,7 @@
         <v>0.10076</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.12761</v>
       </c>
@@ -8694,7 +8630,7 @@
         <v>0.10056</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.12783</v>
       </c>
@@ -8723,7 +8659,7 @@
         <v>0.10074</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.12753999999999999</v>
       </c>
@@ -8752,7 +8688,7 @@
         <v>0.1008</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.12753</v>
       </c>
@@ -8781,7 +8717,7 @@
         <v>0.10093000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.12787999999999999</v>
       </c>
@@ -8810,7 +8746,7 @@
         <v>0.10076</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.12731000000000001</v>
       </c>
@@ -8839,7 +8775,7 @@
         <v>0.10083</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.12776000000000001</v>
       </c>
@@ -8868,7 +8804,7 @@
         <v>0.10079</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.12805</v>
       </c>
@@ -8897,7 +8833,7 @@
         <v>0.10077</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.12792999999999999</v>
       </c>
@@ -8926,7 +8862,7 @@
         <v>0.10047</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.12767000000000001</v>
       </c>
@@ -8955,7 +8891,7 @@
         <v>0.10056</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.12828000000000001</v>
       </c>
@@ -8984,7 +8920,7 @@
         <v>0.10041</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.12753</v>
       </c>
@@ -9013,7 +8949,7 @@
         <v>0.10033</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.12748000000000001</v>
       </c>
@@ -9042,7 +8978,7 @@
         <v>0.10066</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.12859999999999999</v>
       </c>
@@ -9071,7 +9007,7 @@
         <v>0.10094</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>AVERAGE(A46:A95)*100000</f>
         <v>12768.779999999999</v>
@@ -9109,7 +9045,7 @@
         <v>0.10018820000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>AVERAGE(A97,E97,I97)</f>
         <v>12557.673333333334</v>
@@ -9128,9 +9064,9 @@
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9159,7 +9095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-0.25900000000000001</v>
       </c>
@@ -9188,7 +9124,7 @@
         <v>-3.0244200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.18703</v>
       </c>
@@ -9217,7 +9153,7 @@
         <v>0.10118000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.18790000000000001</v>
       </c>
@@ -9246,7 +9182,7 @@
         <v>0.10067</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.18657000000000001</v>
       </c>
@@ -9275,7 +9211,7 @@
         <v>0.10093000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.18790000000000001</v>
       </c>
@@ -9304,7 +9240,7 @@
         <v>0.10068000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.18790000000000001</v>
       </c>
@@ -9333,7 +9269,7 @@
         <v>0.10095</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.18872</v>
       </c>
@@ -9362,7 +9298,7 @@
         <v>0.10034</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.18881000000000001</v>
       </c>
@@ -9391,7 +9327,7 @@
         <v>9.9599999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.18942999999999999</v>
       </c>
@@ -9420,7 +9356,7 @@
         <v>0.10051</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.18790999999999999</v>
       </c>
@@ -9449,7 +9385,7 @@
         <v>0.10073</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.187</v>
       </c>
@@ -9478,7 +9414,7 @@
         <v>0.10098</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.18817999999999999</v>
       </c>
@@ -9507,7 +9443,7 @@
         <v>0.10101</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.18890000000000001</v>
       </c>
@@ -9536,7 +9472,7 @@
         <v>0.10088</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18792</v>
       </c>
@@ -9565,7 +9501,7 @@
         <v>0.10079</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18839</v>
       </c>
@@ -9594,7 +9530,7 @@
         <v>0.10075000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18834999999999999</v>
       </c>
@@ -9623,7 +9559,7 @@
         <v>0.10017</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.18883</v>
       </c>
@@ -9652,7 +9588,7 @@
         <v>0.10047</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.18870000000000001</v>
       </c>
@@ -9681,7 +9617,7 @@
         <v>0.10038</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.18584999999999999</v>
       </c>
@@ -9710,7 +9646,7 @@
         <v>0.10054</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.18604000000000001</v>
       </c>
@@ -9739,7 +9675,7 @@
         <v>0.10020999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.18726999999999999</v>
       </c>
@@ -9768,7 +9704,7 @@
         <v>0.10070999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.18698999999999999</v>
       </c>
@@ -9797,7 +9733,7 @@
         <v>0.10056</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.18845999999999999</v>
       </c>
@@ -9826,7 +9762,7 @@
         <v>9.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.18851999999999999</v>
       </c>
@@ -9855,7 +9791,7 @@
         <v>0.10032000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.18911</v>
       </c>
@@ -9884,7 +9820,7 @@
         <v>0.10059</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.18914</v>
       </c>
@@ -9913,7 +9849,7 @@
         <v>0.10052999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.18845999999999999</v>
       </c>
@@ -9942,7 +9878,7 @@
         <v>9.9729999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.19026999999999999</v>
       </c>
@@ -9971,7 +9907,7 @@
         <v>9.9690000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.18867999999999999</v>
       </c>
@@ -10000,7 +9936,7 @@
         <v>0.1002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.18823999999999999</v>
       </c>
@@ -10029,7 +9965,7 @@
         <v>0.10017</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.18967000000000001</v>
       </c>
@@ -10058,7 +9994,7 @@
         <v>9.9699999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.18944</v>
       </c>
@@ -10087,7 +10023,7 @@
         <v>0.10072</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.18865000000000001</v>
       </c>
@@ -10116,7 +10052,7 @@
         <v>0.10094</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.18967999999999999</v>
       </c>
@@ -10145,7 +10081,7 @@
         <v>0.10022</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.18984999999999999</v>
       </c>
@@ -10174,7 +10110,7 @@
         <v>0.10141</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.18951999999999999</v>
       </c>
@@ -10203,7 +10139,7 @@
         <v>0.10111000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.18895999999999999</v>
       </c>
@@ -10232,7 +10168,7 @@
         <v>0.10093000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.18743000000000001</v>
       </c>
@@ -10261,7 +10197,7 @@
         <v>0.10070999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.18548000000000001</v>
       </c>
@@ -10290,7 +10226,7 @@
         <v>0.10019</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.18809000000000001</v>
       </c>
@@ -10319,7 +10255,7 @@
         <v>0.10036</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.18798000000000001</v>
       </c>
@@ -10348,7 +10284,7 @@
         <v>9.9949999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.18942000000000001</v>
       </c>
@@ -10377,7 +10313,7 @@
         <v>0.10001</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.18867</v>
       </c>
@@ -10406,7 +10342,7 @@
         <v>0.10097</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18895000000000001</v>
       </c>
@@ -10435,7 +10371,7 @@
         <v>0.10113</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.18765000000000001</v>
       </c>
@@ -10464,7 +10400,7 @@
         <v>0.10098</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.18801000000000001</v>
       </c>
@@ -10493,7 +10429,7 @@
         <v>0.10025000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.18855</v>
       </c>
@@ -10522,7 +10458,7 @@
         <v>0.10057000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.18998999999999999</v>
       </c>
@@ -10551,7 +10487,7 @@
         <v>0.10063999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18942999999999999</v>
       </c>
@@ -10580,7 +10516,7 @@
         <v>0.10062</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.18825</v>
       </c>
@@ -10609,7 +10545,7 @@
         <v>0.10063999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.18726999999999999</v>
       </c>
@@ -10638,7 +10574,7 @@
         <v>0.10061</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18794</v>
       </c>
@@ -10667,7 +10603,7 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18748000000000001</v>
       </c>
@@ -10696,7 +10632,7 @@
         <v>0.10057000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.18715999999999999</v>
       </c>
@@ -10725,7 +10661,7 @@
         <v>0.10059999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.18873000000000001</v>
       </c>
@@ -10754,7 +10690,7 @@
         <v>0.10163</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18817999999999999</v>
       </c>
@@ -10783,7 +10719,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18767</v>
       </c>
@@ -10812,7 +10748,7 @@
         <v>0.10122</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.18867</v>
       </c>
@@ -10841,7 +10777,7 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18873000000000001</v>
       </c>
@@ -10870,7 +10806,7 @@
         <v>0.10051</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.18922</v>
       </c>
@@ -10899,7 +10835,7 @@
         <v>0.10070999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.18876999999999999</v>
       </c>
@@ -10928,7 +10864,7 @@
         <v>0.10104</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.18781999999999999</v>
       </c>
@@ -10957,7 +10893,7 @@
         <v>0.10051</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18937999999999999</v>
       </c>
@@ -10986,7 +10922,7 @@
         <v>9.9940000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.19045000000000001</v>
       </c>
@@ -11015,7 +10951,7 @@
         <v>0.10127</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.18808</v>
       </c>
@@ -11044,7 +10980,7 @@
         <v>0.10131999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.18990000000000001</v>
       </c>
@@ -11073,7 +11009,7 @@
         <v>0.10148</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.18833</v>
       </c>
@@ -11102,7 +11038,7 @@
         <v>0.10137</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.19098999999999999</v>
       </c>
@@ -11131,7 +11067,7 @@
         <v>0.1007</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.18790999999999999</v>
       </c>
@@ -11160,7 +11096,7 @@
         <v>0.10105</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.18820000000000001</v>
       </c>
@@ -11189,7 +11125,7 @@
         <v>0.10054</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.18984000000000001</v>
       </c>
@@ -11218,7 +11154,7 @@
         <v>0.10120999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.1888</v>
       </c>
@@ -11247,7 +11183,7 @@
         <v>0.10056</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18770000000000001</v>
       </c>
@@ -11276,7 +11212,7 @@
         <v>0.10094</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.18740999999999999</v>
       </c>
@@ -11305,7 +11241,7 @@
         <v>0.10124</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.18823000000000001</v>
       </c>
@@ -11334,7 +11270,7 @@
         <v>0.10101</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.18831999999999999</v>
       </c>
@@ -11363,7 +11299,7 @@
         <v>0.10052</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.19136</v>
       </c>
@@ -11392,7 +11328,7 @@
         <v>0.10027</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.18689</v>
       </c>
@@ -11421,7 +11357,7 @@
         <v>0.10094</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.19026999999999999</v>
       </c>
@@ -11450,7 +11386,7 @@
         <v>0.10054</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.19106999999999999</v>
       </c>
@@ -11479,7 +11415,7 @@
         <v>0.10098</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.18765000000000001</v>
       </c>
@@ -11508,7 +11444,7 @@
         <v>0.10063</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.18822</v>
       </c>
@@ -11537,7 +11473,7 @@
         <v>9.9979999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.18912999999999999</v>
       </c>
@@ -11566,7 +11502,7 @@
         <v>0.10026</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.18837999999999999</v>
       </c>
@@ -11595,7 +11531,7 @@
         <v>0.10020999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.19072</v>
       </c>
@@ -11624,7 +11560,7 @@
         <v>0.10101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.18855</v>
       </c>
@@ -11653,7 +11589,7 @@
         <v>0.10149</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.18995000000000001</v>
       </c>
@@ -11682,7 +11618,7 @@
         <v>0.10076</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.18956999999999999</v>
       </c>
@@ -11711,7 +11647,7 @@
         <v>0.10154000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.18840999999999999</v>
       </c>
@@ -11740,7 +11676,7 @@
         <v>0.10145999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.1895</v>
       </c>
@@ -11769,7 +11705,7 @@
         <v>0.10082000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.18790000000000001</v>
       </c>
@@ -11798,7 +11734,7 @@
         <v>0.10073</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.18931999999999999</v>
       </c>
@@ -11827,7 +11763,7 @@
         <v>0.10106999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.18734000000000001</v>
       </c>
@@ -11856,7 +11792,7 @@
         <v>0.10068000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.18784000000000001</v>
       </c>
@@ -11885,7 +11821,7 @@
         <v>9.9970000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>AVERAGE(A46:A95)*100000</f>
         <v>18870.260000000002</v>
@@ -11923,7 +11859,7 @@
         <v>0.1008098</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>AVERAGE(A97,E97,I97)</f>
         <v>18830.48</v>

--- a/f_factor/CFD_Cs8_0.1mfr/mfr_0.1.xlsx
+++ b/f_factor/CFD_Cs8_0.1mfr/mfr_0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\CFD_Cs8_0.1mfr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463FAEC3-23DE-4B82-852A-19C9FC9607F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E41D4A-A863-4BFA-9824-20C2D7AD2A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19390" yWindow="3500" windowWidth="18760" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFD_Results" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="19">
   <si>
     <t>Diferencial_cold(bar)</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>0.2</t>
+  </si>
+  <si>
+    <t>y+ (Average)</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Exp. Pressure</t>
+  </si>
+  <si>
+    <t>Geometry</t>
   </si>
 </sst>
 </file>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFEE2B2-17DA-4AD3-88B9-B708B9A84CA6}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,7 +440,7 @@
     <col min="5" max="5" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -436,8 +448,26 @@
       <c r="C1" s="4"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -454,8 +484,17 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4">
+        <v>30313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -469,8 +508,13 @@
       <c r="F3">
         <v>30313.146666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="4"/>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -480,20 +524,37 @@
       <c r="D4" s="3">
         <v>1518820</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>6915063</v>
       </c>
-      <c r="F5" t="e">
-        <f>B3/B5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4">
+        <v>13557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H6" s="4"/>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -501,8 +562,13 @@
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7" s="4"/>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -517,19 +583,88 @@
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="4">
+        <v>22211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>13121</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2846579</v>
+      </c>
       <c r="F9">
-        <v>12557.673333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F11" t="e">
-        <f>B10/B9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13557.6733333333</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>13644</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.56459999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1525766</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>13693</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.57870600000000005</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7137729</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="4">
+        <v>18830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12" s="4"/>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -537,8 +672,13 @@
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13" s="4"/>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -568,9 +708,20 @@
         <v>22211.760000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1679437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7303409</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -599,16 +750,46 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2933391</v>
+      </c>
       <c r="F21">
         <v>18830.48</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1552614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7452663</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="M8:M10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/f_factor/CFD_Cs8_0.1mfr/mfr_0.1.xlsx
+++ b/f_factor/CFD_Cs8_0.1mfr/mfr_0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\CFD_Cs8_0.1mfr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E41D4A-A863-4BFA-9824-20C2D7AD2A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4720CA0-2B63-429A-9B1F-96AA5BD297B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19390" yWindow="3500" windowWidth="18760" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="4210" windowWidth="18760" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFD_Results" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>Diferencial_cold(bar)</t>
   </si>
@@ -98,6 +98,57 @@
   <si>
     <t>Geometry</t>
   </si>
+  <si>
+    <t>31339.5</t>
+  </si>
+  <si>
+    <t>30916.7</t>
+  </si>
+  <si>
+    <t>30114.7</t>
+  </si>
+  <si>
+    <t>22122.5</t>
+  </si>
+  <si>
+    <t>20843.4</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Pressure (Pa)</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +165,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,11 +220,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +250,45 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +573,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,9 +581,10 @@
     <col min="3" max="3" width="9.1796875" style="3"/>
     <col min="4" max="4" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="8" max="13" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -448,26 +592,26 @@
       <c r="C1" s="4"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -484,17 +628,26 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4">
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6">
+        <v>6915063</v>
+      </c>
+      <c r="M2" s="5">
         <v>30313</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -508,13 +661,22 @@
       <c r="F3">
         <v>30313.146666666667</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2823608</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -524,37 +686,64 @@
       <c r="D4" s="3">
         <v>1518820</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1518820</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>6915063</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="4">
-        <v>13557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H6" s="4"/>
-      <c r="I6" t="s">
+      <c r="J5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8">
+        <v>7303409</v>
+      </c>
+      <c r="M5" s="7">
+        <v>22211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="15"/>
+      <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J6" s="8">
+        <v>21830</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2940988</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -562,13 +751,22 @@
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1679437</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,17 +781,26 @@
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="4">
-        <v>22211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J8" s="10">
+        <v>13693</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="10">
+        <v>7137729</v>
+      </c>
+      <c r="M8" s="9">
+        <v>13557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -609,13 +816,22 @@
       <c r="F9">
         <v>13557.6733333333</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J9" s="10">
+        <v>13121</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2846579</v>
+      </c>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -628,13 +844,22 @@
       <c r="D10" s="3">
         <v>1525766</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J10" s="10">
+        <v>13644</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1525766</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -647,24 +872,42 @@
       <c r="D11" s="3">
         <v>7137729</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="4">
-        <v>18830</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H12" s="4"/>
-      <c r="I12" t="s">
+      <c r="J11" s="12">
+        <v>19146</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="12">
+        <v>7452663</v>
+      </c>
+      <c r="M11" s="11">
+        <v>18911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="17"/>
+      <c r="I12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J12" s="12">
+        <v>18195</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2933391</v>
+      </c>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -672,11 +915,20 @@
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="H13" s="4"/>
-      <c r="I13" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="J13" s="12">
+        <v>17898</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1552614</v>
+      </c>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -778,20 +1030,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H11:H13"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
